--- a/doc/speedPro项目跟踪表.xlsx
+++ b/doc/speedPro项目跟踪表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="158">
   <si>
     <t>完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +496,71 @@
   <si>
     <t>2016.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化文件名称修改,语言设置优化</t>
+  </si>
+  <si>
+    <t>上传日志的优化了报错机制,优化了错误捕获机制.</t>
+  </si>
+  <si>
+    <t>语言设置优化</t>
+  </si>
+  <si>
+    <t>打印方法的修改</t>
+  </si>
+  <si>
+    <t>测试中界面代码的优化</t>
+  </si>
+  <si>
+    <t>把所有NSlog换成SVInfo</t>
+  </si>
+  <si>
+    <t>添加了Alart弹框重启应用</t>
+  </si>
+  <si>
+    <t>中文改用zh-Hans-CN</t>
+  </si>
+  <si>
+    <t>用了try..catch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新封装了初始化方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.3</t>
+  </si>
+  <si>
+    <t>全部UI代码优化</t>
+  </si>
+  <si>
+    <t>文件夹整理</t>
+  </si>
+  <si>
+    <t>报黄提示的修改</t>
+  </si>
+  <si>
+    <t>修改了开始弹窗页面的不可点击</t>
+  </si>
+  <si>
+    <t>调整了文本输入框大小</t>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.4</t>
   </si>
 </sst>
 </file>
@@ -777,8 +842,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -870,7 +949,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="45">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -887,6 +966,13 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -902,6 +988,13 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1232,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
@@ -2888,109 +2981,235 @@
       <c r="A65" s="9">
         <v>62</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="10"/>
+      <c r="B65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="66" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A66" s="9">
         <v>63</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="10"/>
+      <c r="B66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="67" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A67" s="9">
         <v>64</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="10"/>
+      <c r="B67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="68" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A68" s="9">
         <v>65</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="10"/>
+      <c r="B68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="69" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A69" s="9">
         <v>66</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="10"/>
+      <c r="B69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="70" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="9">
         <v>67</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="10"/>
+      <c r="B70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="71" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A71" s="9">
         <v>68</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="10"/>
+      <c r="B71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="72" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A72" s="9">
         <v>69</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="10"/>
+      <c r="B72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="73" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A73" s="9">
         <v>70</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="10"/>
+      <c r="B73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="74" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A74" s="9">

--- a/doc/speedPro项目跟踪表.xlsx
+++ b/doc/speedPro项目跟踪表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="202">
   <si>
     <t>完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,161 @@
   </si>
   <si>
     <t>2016.3.4</t>
+  </si>
+  <si>
+    <t>2016.3.5</t>
+  </si>
+  <si>
+    <t>设置界面添加了FAQ</t>
+  </si>
+  <si>
+    <t>设置界面没有FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级设置页面添加了带宽设置</t>
+  </si>
+  <si>
+    <t>高级设置页面没有带宽设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.7</t>
+  </si>
+  <si>
+    <t>带宽设置界面优化</t>
+  </si>
+  <si>
+    <t>做带宽测试服务器列表</t>
+  </si>
+  <si>
+    <t>添加了6/6s的适配宏</t>
+  </si>
+  <si>
+    <t>没有适配6/6s的宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没做带宽测试服务器列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽设置界面没优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.8</t>
+  </si>
+  <si>
+    <t>换成图片转动方法</t>
+  </si>
+  <si>
+    <t>删除用XIB转动方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始测试按钮的状态切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对不同网络情况,开始测试按钮的状态切换不会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改名称SVTestingCtrl为SVVideoTestingCtrl</t>
+  </si>
+  <si>
+    <t>添加网页测试中和宽带测试中控制器</t>
+  </si>
+  <si>
+    <t>点击不同的section进入不同的测试界面</t>
+  </si>
+  <si>
+    <t>用section做标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果页面tableView高度不合适</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.9</t>
+  </si>
+  <si>
+    <t>SVWebTestingViewCtrl网页测试控制器UI页面构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVSpeedTestingViewCtrl带宽测试控制器UI页面构建</t>
+  </si>
+  <si>
+    <t>2016.3.10</t>
+  </si>
+  <si>
+    <t>FAQhtml重写,往服务器添加新的网址</t>
+  </si>
+  <si>
+    <t>把这个写好的网页添加到FAQ界面中</t>
+  </si>
+  <si>
+    <t>2016.3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.11</t>
+  </si>
+  <si>
+    <t>当前结果页面video与web同时测试情况,结果展示.</t>
+  </si>
+  <si>
+    <t>写UI和逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始带宽编辑弹窗的添加</t>
+  </si>
+  <si>
+    <t>注释代码放开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestViewCtrl界面放开3个按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放开注释的代码修改数量级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建UI界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写html,让后台提交到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整指针图片和覆盖图片粒度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转盘中指针图片和遮盖图片的粒度不对</t>
   </si>
 </sst>
 </file>
@@ -842,8 +997,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -949,7 +1138,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="79">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -973,6 +1162,23 @@
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -995,6 +1201,23 @@
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1325,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D77" activeCellId="1" sqref="D90 D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
@@ -3215,229 +3438,495 @@
       <c r="A74" s="9">
         <v>71</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="10"/>
+      <c r="B74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="75" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A75" s="9">
         <v>72</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="10"/>
+      <c r="B75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="76" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A76" s="9">
         <v>73</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="10"/>
+      <c r="B76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="77" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A77" s="9">
         <v>74</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="10"/>
+      <c r="B77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="78" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A78" s="9">
         <v>75</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="10"/>
+      <c r="B78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="79" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A79" s="9">
         <v>76</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="10"/>
+      <c r="B79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="80" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A80" s="9">
         <v>77</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="10"/>
+      <c r="B80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="81" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A81" s="9">
         <v>78</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="10"/>
+      <c r="B81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="82" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A82" s="9">
         <v>79</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="10"/>
+      <c r="B82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="83" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A83" s="9">
         <v>80</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="10"/>
+      <c r="B83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="84" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A84" s="9">
         <v>81</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="10"/>
+      <c r="B84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="85" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A85" s="9">
         <v>82</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="10"/>
+      <c r="B85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="86" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A86" s="9">
         <v>83</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="10"/>
+      <c r="B86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="87" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A87" s="9">
         <v>84</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="10"/>
+      <c r="B87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="88" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A88" s="9">
         <v>85</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="10"/>
+      <c r="B88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="89" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A89" s="9">
         <v>86</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="10"/>
+      <c r="B89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="90" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A90" s="9">
         <v>87</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="10"/>
+      <c r="B90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="91" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A91" s="9">
         <v>88</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="10"/>
+      <c r="B91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="92" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A92" s="9">
         <v>89</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="10"/>
+      <c r="B92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="93" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A93" s="9">

--- a/doc/speedPro项目跟踪表.xlsx
+++ b/doc/speedPro项目跟踪表.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="80" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ios项目" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ios项目!$A$1:$H$189</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="322">
   <si>
     <t>完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,13 +719,398 @@
   </si>
   <si>
     <t>转盘中指针图片和遮盖图片的粒度不对</t>
+  </si>
+  <si>
+    <t>设置界面网络状态图片和文字修改成能跟随网络状态不同而修改</t>
+  </si>
+  <si>
+    <t>2016.3.12</t>
+  </si>
+  <si>
+    <t>修改图片和文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽测试中界面指针粒度调整.</t>
+  </si>
+  <si>
+    <t>调整粒度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面-高级设置-带宽列表界面,显示服务器的值</t>
+  </si>
+  <si>
+    <t>从服务器传值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.13</t>
+  </si>
+  <si>
+    <t>设置界面-高级设置-带宽列表界面,字体调整</t>
+  </si>
+  <si>
+    <t>调整字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置页面-高级设置页面,显示默认服务器值</t>
+  </si>
+  <si>
+    <t>从服务器调方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面-高级设置页面-自动按钮实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面-高级设置页面-自动和选择按钮的颜色联调控制</t>
+  </si>
+  <si>
+    <t>颜色联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面-高级设置页面-字体和按钮的位置调整</t>
+  </si>
+  <si>
+    <t>调整位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面-高级设置页面-自动按钮的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取数组的第0个元素赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取section点击的第几个的内容赋值</t>
+  </si>
+  <si>
+    <t>带宽测试中界面指针和覆盖View的粒度调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个测试中界面header的UI调整,3个当前结果界面的调整</t>
+  </si>
+  <si>
+    <t>调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前结果控制器页面修改,高级设置自动和选择按钮的背景颜色联调</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽列表界面,点击列表section,把它的值传到高级设置页面显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.14</t>
+  </si>
+  <si>
+    <t>设置界面-高级设置页面-视频测播放时长选择下拉菜单</t>
+  </si>
+  <si>
+    <t>在按钮上添加一个tableview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计代码行数</t>
+  </si>
+  <si>
+    <t>代码行数为 13539</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总问题跟踪表填写</t>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘程雨</t>
+  </si>
+  <si>
+    <t>视频播放失败时调整结果页面，结果页面显示测试失败</t>
+  </si>
+  <si>
+    <t>修改查看详细结果页面向上拉动页面到最底部时应用崩溃问题</t>
+  </si>
+  <si>
+    <t>视频支持全屏播放</t>
+  </si>
+  <si>
+    <t>点击开始测试可能回存在崩溃问题。临时注释掉网络设置代码</t>
+  </si>
+  <si>
+    <t>日志上传，上传后删除压缩文件</t>
+  </si>
+  <si>
+    <t>设置带宽，和显示运营商</t>
+  </si>
+  <si>
+    <t>语言切换时，后面勾选按钮勾选错误</t>
+  </si>
+  <si>
+    <t>默认始终显示带宽设置</t>
+  </si>
+  <si>
+    <t>删除 SpeedPro.xcdoeproj目录下不需要git管理的目录文件，减少冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改国际化，应用程序第一次启动，默认采用系统语言</t>
+  </si>
+  <si>
+    <t>2016.3.2</t>
+  </si>
+  <si>
+    <t>重构网络状态实时监控方法</t>
+  </si>
+  <si>
+    <t>应用崩溃日志记录到日志文件中</t>
+  </si>
+  <si>
+    <t>网页和视频中止测试</t>
+  </si>
+  <si>
+    <t>带宽测试支持中止测试</t>
+  </si>
+  <si>
+    <t>带宽支持简单线图</t>
+  </si>
+  <si>
+    <t>支持设置视频播放时间</t>
+  </si>
+  <si>
+    <t>测试首页默认勾选视频，网页，带宽</t>
+  </si>
+  <si>
+    <t>视频测试完成后，将运营商信息入库</t>
+  </si>
+  <si>
+    <t>网页测试相关代码</t>
+  </si>
+  <si>
+    <t>徐睿</t>
+  </si>
+  <si>
+    <t>修改代码报错</t>
+  </si>
+  <si>
+    <t>持久化网页测试的结果</t>
+  </si>
+  <si>
+    <t>增加网页测试的详细结果展示</t>
+  </si>
+  <si>
+    <t>增加多个测试结果一块展示的功能</t>
+  </si>
+  <si>
+    <t>修改采集器信息，带宽和网络类型从数据库获取，增加显示测试时间</t>
+  </si>
+  <si>
+    <t>修改当前结果页面的指标名称</t>
+  </si>
+  <si>
+    <t>修改网页测试详细结果单位不显示的问题</t>
+  </si>
+  <si>
+    <t>当显示当前结果页面时持久化汇聚的结果</t>
+  </si>
+  <si>
+    <t>采集器信息的网络类型和带宽显示真实数据，增加显示测试时间</t>
+  </si>
+  <si>
+    <t>修改高级设置中，英文环境显示中文的问题</t>
+  </si>
+  <si>
+    <t>修改指标名称</t>
+  </si>
+  <si>
+    <t>优化网页测试，支持多种测试顺序进行</t>
+  </si>
+  <si>
+    <t>尹正玉</t>
+  </si>
+  <si>
+    <t>新增带宽测试</t>
+  </si>
+  <si>
+    <t>代码被覆盖，回退</t>
+  </si>
+  <si>
+    <t>合并SpeedPro代码到SpeedProUI工程中</t>
+  </si>
+  <si>
+    <t>修改编译后的文件输出目录，将编译后生成文件直接放到当前工程目录build目录下</t>
+  </si>
+  <si>
+    <t>编译后的文件输出到原始模拟器build目录下</t>
+  </si>
+  <si>
+    <t>将SpeedProUI工程直接依赖SpeedPro工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改视频详细结果显示的URL为网页地址，而不是视频分片地址</t>
+  </si>
+  <si>
+    <t>新增查询SpeedTest 服务器列表数据</t>
+  </si>
+  <si>
+    <t>合并SpeedTest文件</t>
+  </si>
+  <si>
+    <t>SpeedTest 下载速度异常</t>
+  </si>
+  <si>
+    <t>SpeedTest initCurrentResultModel 测试完成后记录最终结果到内存</t>
+  </si>
+  <si>
+    <t>SpeedTest 结果持久化</t>
+  </si>
+  <si>
+    <t>SpeedTest 日志</t>
+  </si>
+  <si>
+    <t>SpeedTest 当前结果展示页面</t>
+  </si>
+  <si>
+    <t>SpeedTest 调整当前结果位置</t>
+  </si>
+  <si>
+    <t>SpeedTest 明细结果页面</t>
+  </si>
+  <si>
+    <t>SpeedTest 域名解析过程判空</t>
+  </si>
+  <si>
+    <t>指标名称写错了，应该是buffer times</t>
+  </si>
+  <si>
+    <t>重新打包framework</t>
+  </si>
+  <si>
+    <t>修改工程名称为SpeedPro. 解决打出的spa包名不是SpeedPro问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPCommon 和 SPService framework 支持 x86_64 arm7 arm64平台</t>
+  </si>
+  <si>
+    <t>支持切换语言，切换语言需要重启APP</t>
+  </si>
+  <si>
+    <t>解决编译的framework无法在模拟器上使用。（编译的framework 只支持真机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVLanguageSettingViewCtrl 文件在合并冲突时多删除一行</t>
+  </si>
+  <si>
+    <t>增加SVToast.h 一个类似于Android Toast组件</t>
+  </si>
+  <si>
+    <t>将SVLog和SVI8N头文件添加到pch文件中，移除其他文件中的这两个头文件</t>
+  </si>
+  <si>
+    <t>支持youtube网站视频播放</t>
+  </si>
+  <si>
+    <t>APP使用跟随系统语言进行显示</t>
+  </si>
+  <si>
+    <t>使用SVHttpsGetter发送请求时，如果服务器返回数据较大，则获取了数据的一部分</t>
+  </si>
+  <si>
+    <t>提交SPCommon和SPService的修改</t>
+  </si>
+  <si>
+    <t>修改u-vMOS 类库</t>
+  </si>
+  <si>
+    <t>修改SpeedTestServers的函数名</t>
+  </si>
+  <si>
+    <t>youtube视频源4k和1080p随机选择</t>
+  </si>
+  <si>
+    <t>更改u-vMOS 库</t>
+  </si>
+  <si>
+    <t>结果界面显示汇总数据，-1的数据显示为</t>
+  </si>
+  <si>
+    <t>更新SPCommon和SPService</t>
+  </si>
+  <si>
+    <t>去掉设置中的FAQ</t>
+  </si>
+  <si>
+    <t>计算视频速率时，下载字节数没有乘以8</t>
+  </si>
+  <si>
+    <t>视频测试页面码率单位kbps</t>
+  </si>
+  <si>
+    <t>删除SVAdvancedSetting.h文件，将代码合入SVProbeInfo.h</t>
+  </si>
+  <si>
+    <t>上报结果到服务器</t>
+  </si>
+  <si>
+    <t>SpeedTest 上传失败问题</t>
+  </si>
+  <si>
+    <t>SpeedTest 结果上报捕获异常，增加采集器信息</t>
+  </si>
+  <si>
+    <t>SpeedTest  结果上报暂时不报web结果</t>
+  </si>
+  <si>
+    <t>SpeedTest 表针优化</t>
+  </si>
+  <si>
+    <t>SpeedTest 结果上报在线程种，等两秒</t>
+  </si>
+  <si>
+    <t>SpeedTest 不能停止问题</t>
+  </si>
+  <si>
+    <t>修改国际化在不同中国不同地域使用统一的简体中文国际化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志上传通过多线程异步上传,会导致文件还没上传成功，就已经被删除了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志上传使用NSRequest对象设置了超时时间，超时时间会导致上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -795,6 +1183,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -804,7 +1208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -876,128 +1280,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1077,8 +1361,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,29 +1417,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,8 +1444,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="117">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -1179,6 +1492,25 @@
     <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1218,6 +1550,25 @@
     <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1546,76 +1897,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D77" activeCellId="1" sqref="D90 D77"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="90.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="37" style="1" customWidth="1"/>
     <col min="6" max="8" width="13.83203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="29" customHeight="1" thickBot="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:9" ht="29" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1624,7 +1976,7 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1636,12 +1988,12 @@
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1650,7 +2002,7 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1662,12 +2014,12 @@
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1676,7 +2028,7 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1688,12 +2040,12 @@
       <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1702,7 +2054,7 @@
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1714,12 +2066,12 @@
       <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1728,7 +2080,7 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1740,12 +2092,12 @@
       <c r="G8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1754,7 +2106,7 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1766,12 +2118,12 @@
       <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1780,7 +2132,7 @@
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1792,12 +2144,12 @@
       <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1806,7 +2158,7 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1818,12 +2170,12 @@
       <c r="G11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1832,7 +2184,7 @@
       <c r="C12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1844,12 +2196,12 @@
       <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1858,89 +2210,83 @@
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>23</v>
@@ -1948,12 +2294,12 @@
       <c r="G16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1962,11 +2308,11 @@
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
+      <c r="D17" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>23</v>
@@ -1974,25 +2320,25 @@
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>23</v>
@@ -2000,25 +2346,25 @@
       <c r="G18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>23</v>
@@ -2026,12 +2372,12 @@
       <c r="G19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2040,115 +2386,113 @@
       <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A23" s="9">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A24" s="9">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>25</v>
@@ -2156,25 +2500,25 @@
       <c r="G24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A25" s="9">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>25</v>
@@ -2182,25 +2526,25 @@
       <c r="G25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>25</v>
@@ -2208,12 +2552,12 @@
       <c r="G26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A27" s="9">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2222,193 +2566,193 @@
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="G31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="G32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="4" t="s">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="10" t="s">
+      <c r="G33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A30" s="9">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="4" t="s">
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A31" s="9">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A32" s="9">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A33" s="9">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A34" s="9">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>29</v>
@@ -2416,12 +2760,12 @@
       <c r="G34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>30</v>
+      <c r="H34" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A35" s="9">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -2430,11 +2774,11 @@
       <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>59</v>
+      <c r="D35" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>29</v>
@@ -2442,12 +2786,12 @@
       <c r="G35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A36" s="9">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2456,11 +2800,11 @@
       <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>60</v>
+      <c r="D36" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>29</v>
@@ -2468,12 +2812,12 @@
       <c r="G36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A37" s="9">
+      <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2482,11 +2826,11 @@
       <c r="C37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>100</v>
+      <c r="D37" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>29</v>
@@ -2494,25 +2838,25 @@
       <c r="G37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A38" s="9">
+      <c r="A38" s="4">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>29</v>
@@ -2520,12 +2864,12 @@
       <c r="G38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A39" s="9">
+      <c r="A39" s="4">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -2534,11 +2878,11 @@
       <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
+      <c r="D39" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>29</v>
@@ -2546,12 +2890,12 @@
       <c r="G39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A40" s="9">
+      <c r="A40" s="4">
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -2560,11 +2904,11 @@
       <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>63</v>
+      <c r="D40" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>29</v>
@@ -2572,12 +2916,12 @@
       <c r="G40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A41" s="9">
+      <c r="A41" s="4">
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2586,11 +2930,11 @@
       <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>64</v>
+      <c r="D41" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>29</v>
@@ -2598,12 +2942,12 @@
       <c r="G41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A42" s="9">
+      <c r="A42" s="4">
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -2612,11 +2956,11 @@
       <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>65</v>
+      <c r="D42" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>29</v>
@@ -2624,12 +2968,12 @@
       <c r="G42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A43" s="9">
+      <c r="A43" s="4">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2638,11 +2982,11 @@
       <c r="C43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>66</v>
+      <c r="D43" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>29</v>
@@ -2650,402 +2994,402 @@
       <c r="G43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A44" s="9">
+      <c r="A44" s="4">
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="10" t="s">
+      <c r="G48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A45" s="9">
-        <v>42</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="4" t="s">
+    <row r="49" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="10" t="s">
+      <c r="G49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A46" s="9">
-        <v>43</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="4" t="s">
+    <row r="50" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="10" t="s">
+      <c r="G50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A47" s="9">
-        <v>44</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="4" t="s">
+    <row r="51" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="10" t="s">
+      <c r="G51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A48" s="9">
-        <v>45</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="4" t="s">
+    <row r="52" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="10" t="s">
+      <c r="G52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A49" s="9">
-        <v>46</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="4" t="s">
+    <row r="53" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="10" t="s">
+      <c r="G53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A50" s="9">
-        <v>47</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="4" t="s">
+    <row r="54" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="10" t="s">
+      <c r="G54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A51" s="9">
-        <v>48</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="4" t="s">
+    <row r="55" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="10" t="s">
+      <c r="G55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A52" s="9">
-        <v>49</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="4" t="s">
+    <row r="56" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D56" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="10" t="s">
+      <c r="G56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A53" s="9">
-        <v>50</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="4" t="s">
+    <row r="57" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="10" t="s">
+      <c r="G57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A54" s="9">
-        <v>51</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    <row r="58" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D58" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="10" t="s">
+      <c r="G58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A55" s="9">
-        <v>52</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A56" s="9">
-        <v>53</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A57" s="9">
-        <v>54</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A58" s="9">
-        <v>55</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="59" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A59" s="9">
+      <c r="A59" s="4">
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -3054,830 +3398,796 @@
       <c r="C59" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A61" s="4">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A62" s="4">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A63" s="4">
+        <v>60</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A64" s="4">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A66" s="4">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="10" t="s">
+      <c r="G66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A60" s="9">
-        <v>57</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="4" t="s">
+    <row r="67" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A67" s="4">
+        <v>64</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A68" s="4">
+        <v>65</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A69" s="4">
+        <v>66</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A70" s="4">
+        <v>67</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A71" s="4">
+        <v>68</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A72" s="4">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="10" t="s">
+      <c r="G72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A61" s="9">
-        <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="4" t="s">
+    <row r="73" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A73" s="4">
+        <v>70</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" s="10" t="s">
+      <c r="G73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A62" s="9">
-        <v>59</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="4" t="s">
+    <row r="74" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A74" s="4">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="10" t="s">
+      <c r="G74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A63" s="9">
-        <v>60</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="4" t="s">
+    <row r="75" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A75" s="4">
+        <v>72</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A76" s="4">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="10" t="s">
+      <c r="G76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A64" s="9">
-        <v>61</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="4" t="s">
+    <row r="77" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A77" s="4">
+        <v>74</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" s="10" t="s">
+      <c r="G77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A65" s="9">
-        <v>62</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="4" t="s">
+    <row r="78" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A78" s="4">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A79" s="4">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A80" s="4">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F80" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="10" t="s">
+      <c r="G80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A66" s="9">
-        <v>63</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="4" t="s">
+    <row r="81" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A81" s="4">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F81" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="10" t="s">
+      <c r="G81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A67" s="9">
-        <v>64</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="4" t="s">
+    <row r="82" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A82" s="4">
+        <v>79</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D82" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F82" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="10" t="s">
+      <c r="G82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A68" s="9">
-        <v>65</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="4" t="s">
+    <row r="83" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A83" s="4">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F83" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="10" t="s">
+      <c r="G83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A69" s="9">
-        <v>66</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="4" t="s">
+    <row r="84" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A84" s="4">
+        <v>81</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F84" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="10" t="s">
+      <c r="G84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A70" s="9">
-        <v>67</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="4" t="s">
+    <row r="85" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A85" s="4">
+        <v>82</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A86" s="4">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A87" s="4">
         <v>84</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F70" s="10" t="s">
+      <c r="B87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A71" s="9">
-        <v>68</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F71" s="10" t="s">
+    </row>
+    <row r="88" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A88" s="4">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A72" s="9">
-        <v>69</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" s="10" t="s">
+    </row>
+    <row r="89" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A89" s="4">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A73" s="9">
-        <v>70</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F73" s="10" t="s">
+    </row>
+    <row r="90" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A90" s="4">
+        <v>87</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A74" s="9">
-        <v>71</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A75" s="9">
-        <v>72</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A76" s="9">
-        <v>73</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A77" s="9">
-        <v>74</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A78" s="9">
-        <v>75</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A79" s="9">
-        <v>76</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A80" s="9">
-        <v>77</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A81" s="9">
-        <v>78</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A82" s="9">
-        <v>79</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A83" s="9">
-        <v>80</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A84" s="9">
-        <v>81</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A85" s="9">
-        <v>82</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A86" s="9">
-        <v>83</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A87" s="9">
-        <v>84</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A88" s="9">
-        <v>85</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A89" s="9">
-        <v>86</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A90" s="9">
-        <v>87</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="91" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A91" s="9">
+      <c r="A91" s="4">
         <v>88</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -3886,164 +4196,2537 @@
       <c r="C91" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A92" s="4">
+        <v>89</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A93" s="4">
+        <v>90</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A94" s="4">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A95" s="4">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A96" s="4">
+        <v>93</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A97" s="4">
+        <v>94</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A98" s="4">
+        <v>95</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A99" s="4">
+        <v>96</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A100" s="4">
+        <v>97</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A101" s="4">
+        <v>98</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A102" s="4">
+        <v>99</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A103" s="4">
+        <v>100</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A104" s="4">
+        <v>101</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A105" s="4">
+        <v>102</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A106" s="4">
+        <v>103</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A107" s="4">
+        <v>104</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A108" s="4">
+        <v>105</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A109" s="4">
+        <v>106</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A110" s="4">
+        <v>107</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A111" s="4">
+        <v>108</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A112" s="4">
+        <v>109</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A113" s="4">
+        <v>110</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A114" s="4">
+        <v>111</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A115" s="4">
+        <v>112</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A116" s="4">
+        <v>113</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A117" s="4">
+        <v>114</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A118" s="4">
+        <v>115</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A119" s="4">
+        <v>116</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A120" s="4">
+        <v>117</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A121" s="4">
+        <v>118</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A122" s="4">
+        <v>119</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A123" s="4">
+        <v>120</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F123" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" s="10" t="s">
+      <c r="G123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A92" s="9">
-        <v>89</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="4" t="s">
+    <row r="124" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A124" s="4">
+        <v>121</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F124" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="10" t="s">
+      <c r="G124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A93" s="9">
-        <v>90</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A94" s="9">
-        <v>91</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A95" s="9">
-        <v>92</v>
-      </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A96" s="9">
-        <v>93</v>
-      </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
-      <c r="A97" s="9">
-        <v>94</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A98" s="11">
-        <v>95</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="100" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="101" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="102" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="103" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="104" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="105" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="106" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="107" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="108" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="109" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="110" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="111" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="112" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="113" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="114" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="115" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="116" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="117" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="118" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="119" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="120" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="121" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="122" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="123" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="124" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="125" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="126" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="127" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="128" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="129" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="130" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="131" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="132" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="133" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="134" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="135" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="136" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="137" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="138" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="139" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="140" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="141" s="5" customFormat="1" ht="24" customHeight="1"/>
-    <row r="142" s="5" customFormat="1" ht="24" customHeight="1"/>
+    <row r="125" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A125" s="4">
+        <v>122</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A126" s="4">
+        <v>123</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A127" s="4">
+        <v>124</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A128" s="4">
+        <v>125</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A129" s="4">
+        <v>126</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A130" s="4">
+        <v>127</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A131" s="4">
+        <v>128</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A132" s="4">
+        <v>129</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A133" s="4">
+        <v>130</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A134" s="4">
+        <v>131</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A135" s="4">
+        <v>132</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A136" s="4">
+        <v>133</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A137" s="4">
+        <v>134</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A138" s="4">
+        <v>135</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A139" s="4">
+        <v>136</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A140" s="4">
+        <v>137</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A141" s="4">
+        <v>138</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A142" s="4">
+        <v>139</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A143" s="4">
+        <v>140</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A144" s="4">
+        <v>141</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A145" s="4">
+        <v>142</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A146" s="4">
+        <v>143</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A147" s="4">
+        <v>144</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A148" s="4">
+        <v>145</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A149" s="4">
+        <v>146</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A150" s="4">
+        <v>147</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A151" s="4">
+        <v>148</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A152" s="4">
+        <v>149</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A153" s="4">
+        <v>150</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A154" s="4">
+        <v>151</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A155" s="4">
+        <v>152</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A156" s="4">
+        <v>153</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A157" s="4">
+        <v>154</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A158" s="4">
+        <v>155</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A159" s="4">
+        <v>156</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A160" s="4">
+        <v>157</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A161" s="4">
+        <v>158</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A162" s="4">
+        <v>159</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A163" s="4">
+        <v>160</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A164" s="4">
+        <v>161</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A165" s="4">
+        <v>162</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A166" s="4">
+        <v>163</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A167" s="4">
+        <v>164</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A168" s="4">
+        <v>165</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A169" s="4">
+        <v>166</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A170" s="4">
+        <v>167</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A171" s="4">
+        <v>168</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A172" s="4">
+        <v>169</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A173" s="4">
+        <v>170</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A174" s="4">
+        <v>171</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A175" s="4">
+        <v>172</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A176" s="4">
+        <v>173</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A177" s="4">
+        <v>174</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A178" s="4">
+        <v>175</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A179" s="4">
+        <v>176</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A180" s="4">
+        <v>177</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A181" s="4">
+        <v>178</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A182" s="4">
+        <v>179</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A183" s="4">
+        <v>180</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A184" s="4">
+        <v>181</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A185" s="4">
+        <v>182</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A186" s="4">
+        <v>183</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A187" s="4">
+        <v>184</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A188" s="4">
+        <v>185</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A189" s="4">
+        <v>186</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D195" s="7"/>
+    </row>
+    <row r="196" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D196" s="7"/>
+    </row>
+    <row r="197" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D199" s="7"/>
+    </row>
+    <row r="200" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D201" s="7"/>
+    </row>
+    <row r="202" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="4:4" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="4:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="4:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="4:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="4:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="4:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="4:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="4:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="4:6" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="4:6" ht="24" customHeight="1">
+      <c r="F217" s="5"/>
+    </row>
+    <row r="218" spans="4:6" ht="24" customHeight="1">
+      <c r="F218" s="5"/>
+    </row>
   </sheetData>
   <sortState ref="D3:D4">
     <sortCondition ref="D4"/>
@@ -4057,11 +6740,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B1048576">
       <formula1>"自检阶段,众测阶段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C74 C76:C77 C80:C84 C91:C99 C102:C108 C112:C113 C115:C116 C122:C125 C129 C143:C153 C180:C182 C190:C1048576">
       <formula1>"CR致命,MA严重,NO一般,EN提示"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G1048576">
-      <formula1>"王彬,刘程雨"</formula1>
+      <formula1>"王彬,刘程雨,徐睿,尹正玉"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
